--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_CtyMinhHuy.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_CtyMinhHuy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="29" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="93">
   <si>
     <t>STT</t>
   </si>
@@ -830,6 +830,33 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -851,37 +878,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="E2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1223,43 +1223,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="105" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="105"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="70"/>
@@ -1304,58 +1304,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="99" t="s">
+      <c r="K4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="99"/>
-      <c r="M4" s="107" t="s">
+      <c r="L4" s="98"/>
+      <c r="M4" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="107" t="s">
+      <c r="N4" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="99" t="s">
+      <c r="O4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="98" t="s">
+      <c r="P4" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="99" t="s">
+      <c r="Q4" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="99" t="s">
+      <c r="R4" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="100" t="s">
+      <c r="S4" s="108" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="99" t="s">
+      <c r="V4" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="99" t="s">
+      <c r="W4" s="98" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1380,24 +1380,24 @@
       <c r="I5" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="99"/>
+      <c r="J5" s="98"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="101"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="109"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
+      <c r="V5" s="98"/>
+      <c r="W5" s="98"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1455,7 +1455,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="66"/>
-      <c r="V6" s="92" t="s">
+      <c r="V6" s="101" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1512,7 +1512,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="66"/>
-      <c r="V7" s="93"/>
+      <c r="V7" s="102"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1569,7 +1569,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="66"/>
-      <c r="V8" s="93"/>
+      <c r="V8" s="102"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1624,7 +1624,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
       <c r="U9" s="66"/>
-      <c r="V9" s="93"/>
+      <c r="V9" s="102"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1653,7 +1653,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
       <c r="U10" s="66"/>
-      <c r="V10" s="93"/>
+      <c r="V10" s="102"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
       <c r="U11" s="66"/>
-      <c r="V11" s="93"/>
+      <c r="V11" s="102"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1711,7 +1711,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
       <c r="U12" s="66"/>
-      <c r="V12" s="92" t="s">
+      <c r="V12" s="101" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1742,7 +1742,7 @@
       <c r="S13" s="91"/>
       <c r="T13" s="66"/>
       <c r="U13" s="66"/>
-      <c r="V13" s="93"/>
+      <c r="V13" s="102"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1758,7 +1758,7 @@
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
       <c r="H14" s="68"/>
-      <c r="I14" s="109"/>
+      <c r="I14" s="92"/>
       <c r="J14" s="91"/>
       <c r="K14" s="87"/>
       <c r="L14" s="55"/>
@@ -1771,7 +1771,7 @@
       <c r="S14" s="91"/>
       <c r="T14" s="66"/>
       <c r="U14" s="66"/>
-      <c r="V14" s="93"/>
+      <c r="V14" s="102"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1800,7 +1800,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="66"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="93"/>
+      <c r="V15" s="102"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1829,7 +1829,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="66"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="94"/>
+      <c r="V16" s="103"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3063,10 +3063,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="95" t="s">
+      <c r="V56" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="95">
+      <c r="W56" s="104">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3095,8 +3095,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="96"/>
-      <c r="W57" s="96"/>
+      <c r="V57" s="105"/>
+      <c r="W57" s="105"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3122,8 +3122,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="97"/>
-      <c r="W58" s="97"/>
+      <c r="V58" s="106"/>
+      <c r="W58" s="106"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -4410,6 +4410,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4420,16 +4430,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4440,8 +4440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4472,43 +4472,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="105" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="105"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="70"/>
@@ -4553,58 +4553,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="99" t="s">
+      <c r="K4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="99"/>
-      <c r="M4" s="107" t="s">
+      <c r="L4" s="98"/>
+      <c r="M4" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="107" t="s">
+      <c r="N4" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="99" t="s">
+      <c r="O4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="98" t="s">
+      <c r="P4" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="99" t="s">
+      <c r="Q4" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="99" t="s">
+      <c r="R4" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="100" t="s">
+      <c r="S4" s="108" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="99" t="s">
+      <c r="V4" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="99" t="s">
+      <c r="W4" s="98" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4629,24 +4629,24 @@
       <c r="I5" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="99"/>
+      <c r="J5" s="98"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="101"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="109"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
+      <c r="V5" s="98"/>
+      <c r="W5" s="98"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="T6" s="27"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="92" t="s">
+      <c r="V6" s="101" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4731,7 +4731,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="93"/>
+      <c r="V7" s="102"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4760,7 +4760,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="93"/>
+      <c r="V8" s="102"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4789,7 +4789,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="93"/>
+      <c r="V9" s="102"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4818,7 +4818,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="93"/>
+      <c r="V10" s="102"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="93"/>
+      <c r="V11" s="102"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4876,7 +4876,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="92" t="s">
+      <c r="V12" s="101" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -4907,7 +4907,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="93"/>
+      <c r="V13" s="102"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4936,7 +4936,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="93"/>
+      <c r="V14" s="102"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4965,7 +4965,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="63"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="93"/>
+      <c r="V15" s="102"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4994,7 +4994,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="63"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="94"/>
+      <c r="V16" s="103"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6228,10 +6228,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="95" t="s">
+      <c r="V56" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="95">
+      <c r="W56" s="104">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6260,8 +6260,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="96"/>
-      <c r="W57" s="96"/>
+      <c r="V57" s="105"/>
+      <c r="W57" s="105"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6287,8 +6287,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="97"/>
-      <c r="W58" s="97"/>
+      <c r="V58" s="106"/>
+      <c r="W58" s="106"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -7575,6 +7575,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7585,16 +7595,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7605,8 +7605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7637,43 +7637,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="105" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="105"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -7718,58 +7718,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="99" t="s">
+      <c r="K4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="99"/>
-      <c r="M4" s="107" t="s">
+      <c r="L4" s="98"/>
+      <c r="M4" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="107" t="s">
+      <c r="N4" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="99" t="s">
+      <c r="O4" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="98" t="s">
+      <c r="P4" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="99" t="s">
+      <c r="Q4" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="99" t="s">
+      <c r="R4" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="100" t="s">
+      <c r="S4" s="108" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="99" t="s">
+      <c r="V4" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="99" t="s">
+      <c r="W4" s="98" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -7794,50 +7794,82 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="99"/>
+      <c r="J5" s="98"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="101"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="109"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
+      <c r="V5" s="98"/>
+      <c r="W5" s="98"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="50"/>
+      <c r="B6" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="51">
+        <v>867717030429493</v>
+      </c>
+      <c r="F6" s="68"/>
+      <c r="G6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="54">
+        <v>300000</v>
+      </c>
+      <c r="O6" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>75</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="92" t="s">
+      <c r="V6" s="101" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -7848,27 +7880,53 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
+      <c r="B7" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="51">
+        <v>867857039939959</v>
+      </c>
+      <c r="F7" s="68"/>
+      <c r="G7" s="50" t="s">
+        <v>67</v>
+      </c>
       <c r="H7" s="50"/>
-      <c r="I7" s="52"/>
+      <c r="I7" s="73" t="s">
+        <v>87</v>
+      </c>
       <c r="J7" s="52"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="55"/>
+      <c r="K7" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="54"/>
+      <c r="O7" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="93"/>
+      <c r="V7" s="102"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7877,27 +7935,55 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="51">
+        <v>867857039932624</v>
+      </c>
       <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
+      <c r="G8" s="50" t="s">
+        <v>67</v>
+      </c>
       <c r="H8" s="50"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="55"/>
+      <c r="I8" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="54"/>
+      <c r="O8" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8" s="50" t="s">
+        <v>75</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="93"/>
+      <c r="V8" s="102"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7906,27 +7992,53 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="B9" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="51">
+        <v>868183037842551</v>
+      </c>
       <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="52"/>
+      <c r="G9" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="73" t="s">
+        <v>84</v>
+      </c>
       <c r="J9" s="52"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
+      <c r="K9" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>78</v>
+      </c>
       <c r="N9" s="54"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="50"/>
+      <c r="O9" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="93"/>
+      <c r="V9" s="102"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -7935,27 +8047,55 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="3"/>
+      <c r="B10" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="51">
+        <v>868926033954915</v>
+      </c>
+      <c r="F10" s="68"/>
+      <c r="G10" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="68"/>
+      <c r="I10" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="55"/>
+      <c r="M10" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="54"/>
+      <c r="O10" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="93"/>
+      <c r="V10" s="102"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7984,7 +8124,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="93"/>
+      <c r="V11" s="102"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8013,7 +8153,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="92" t="s">
+      <c r="V12" s="101" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -8044,7 +8184,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="93"/>
+      <c r="V13" s="102"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8073,7 +8213,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="93"/>
+      <c r="V14" s="102"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8102,7 +8242,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="93"/>
+      <c r="V15" s="102"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8131,7 +8271,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="94"/>
+      <c r="V16" s="103"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8250,7 +8390,7 @@
       </c>
       <c r="W20" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8314,7 +8454,7 @@
       </c>
       <c r="W22" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8463,7 +8603,7 @@
       </c>
       <c r="W27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8591,7 +8731,7 @@
       </c>
       <c r="W31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8719,7 +8859,7 @@
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8783,7 +8923,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9050,7 +9190,7 @@
       </c>
       <c r="W46" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9114,7 +9254,7 @@
       </c>
       <c r="W48" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9365,10 +9505,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="95" t="s">
+      <c r="V56" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="95">
+      <c r="W56" s="104">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9397,8 +9537,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="96"/>
-      <c r="W57" s="96"/>
+      <c r="V57" s="105"/>
+      <c r="W57" s="105"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -9424,8 +9564,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="97"/>
-      <c r="W58" s="97"/>
+      <c r="V58" s="106"/>
+      <c r="W58" s="106"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -10712,6 +10852,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10722,16 +10872,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
